--- a/产品方向/模具供应商.xlsx
+++ b/产品方向/模具供应商.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="7890"/>
+    <workbookView windowWidth="19770" windowHeight="8310"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,10 +169,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -197,6 +197,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -220,37 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -312,20 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -333,6 +319,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -349,6 +349,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,6 +367,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -379,7 +397,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,31 +439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +457,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -439,7 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,85 +529,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1428,9 +1428,9 @@
   <dimension ref="A1:F106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1609,6 +1609,11 @@
     <row r="38" spans="2:2">
       <c r="B38" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="6:6">
+      <c r="F39">
+        <v>55</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" spans="3:5">
